--- a/doc/HSYS課題管理表.xlsx
+++ b/doc/HSYS課題管理表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\hsys\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spring\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>管理
 番号</t>
@@ -397,6 +397,357 @@
   </si>
   <si>
     <t>ＨＳＹＳ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同No.8 全般チェック</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExpenseReceiptBusiness::getReceipt()要りますか？</t>
+    <rPh sb="36" eb="37">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExpenseReceiptBusiness::add
+NoなどフィールドのＮＵＬＬチェックなど漏れました。</t>
+    <rPh sb="48" eb="49">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExpenseReceiptBusiness::delete
+トランザクション処理が必要です。</t>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExpenseReceiptBusiness::submit/approval
+receipt.setStatus(1);定数はEnumで定義してください。
+なお、サブミット前に条件を考えてください、例えば、審査中のものはサブミットできないね？</t>
+    <rPh sb="61" eb="63">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>シンサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExpenseReceiptDeleteForm、ExpenseReceiptGetFormと全般チェック
+　バージョン情報漏れです。</t>
+    <rPh sb="47" eb="49">
+      <t>ゼンパン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RestBusiness::delete
+同#16</t>
+    <rPh sb="21" eb="22">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RestModel::idを削除してください。BaseModelにあります。</t>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RestServices：：queryById
+ByIdなので、listは必ず１です。　if(list.size() != 1) {が正しい。</t>
+    <rPh sb="37" eb="38">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src/src/main/resources/mappers/ExpenseReceiptMapper.xml Revision 9320
+addで、「deviceModel」を使っている？</t>
+    <rPh sb="89" eb="90">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src/src/main/resources/mappers/ExpenseReceiptMapper.xml Revision 9320
+updateで「cond.status」は間違いですね？</t>
+    <rPh sb="91" eb="93">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src/src/main/resources/mappers/ExpenseReceiptMapper.xml Revision 9320
+deleteでcond.idは不要ですね？なぜかわかりますか？</t>
+    <rPh sb="85" eb="87">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src/src/main/resources/mappers/RestMapper.xml Revision 9320
+同Ｎｏ．25</t>
+    <rPh sb="60" eb="61">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src/src/main/resources/static/js/expense/receipts.js Revision 9320
+不要なソースコードを削除してください。</t>
+    <rPh sb="67" eb="69">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经将作者跟日期添加上去</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>韩才鹏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该函数引用上去</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>RestBusiness　L19,L21 ifの前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行了空格</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RestMapper.xm Ｌ25－35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行了缩进</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>将RestMapper.xmlＬ40~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行了修改</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>错误信息进行了重新修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经将该函数引用上去</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>L83的ajax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行了移动</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整个代码进行了检查修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>进行了重命名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RestForm⇒RestHtmlListForm?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添加了 @ transactional注解</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id进行了删除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>if(list.size() != 1)代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码进行了修正</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>将 cond.id判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マサル</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -586,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,21 +983,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,7 +1044,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -665,57 +1061,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,6 +1091,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -740,33 +1109,19 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,6 +1137,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -815,28 +1173,332 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="314">
+  <dxfs count="358">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3352,8 +4014,8 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3361,7 +4023,7 @@
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="14" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="83" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="63" customWidth="1"/>
     <col min="5" max="5" width="68" style="3" customWidth="1"/>
     <col min="6" max="6" width="64.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="4" customWidth="1"/>
@@ -3373,15 +4035,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="67"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="5"/>
@@ -3391,56 +4053,56 @@
       <c r="A2" s="6"/>
       <c r="B2" s="12"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="79"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -3453,17 +4115,23 @@
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="62">
         <v>9125</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="41">
+        <v>43494</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="42"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3471,23 +4139,29 @@
         <f t="shared" ref="A6:A69" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="58">
         <v>43489</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="62">
         <v>9125</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42"/>
+      <c r="F6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="41">
+        <v>43494</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="42"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3495,21 +4169,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="58">
         <v>43489</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="62">
         <v>9125</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42"/>
+      <c r="F7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="41">
+        <v>43494</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="10"/>
       <c r="K7" s="1"/>
@@ -3519,23 +4199,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="58">
         <v>43489</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="62">
         <v>9125</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="41">
+        <v>43494</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="42"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="114" x14ac:dyDescent="0.25">
@@ -3543,23 +4229,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="58">
         <v>43489</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="62">
         <v>9125</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="42"/>
+      <c r="F9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="41">
+        <v>43494</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
@@ -3567,23 +4259,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="58">
         <v>43489</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="62">
         <v>9125</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="42"/>
+      <c r="F10" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="41">
+        <v>43494</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="42"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3591,23 +4289,23 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="58">
         <v>43489</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="62">
         <v>9125</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3615,23 +4313,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="58">
         <v>43489</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="62">
         <v>9125</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="43"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="10"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
@@ -3639,23 +4337,23 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="58">
         <v>43489</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="62">
         <v>9125</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="18"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
@@ -3663,23 +4361,29 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="58">
         <v>43489</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="62">
         <v>9125</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="41">
+        <v>43494</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3687,23 +4391,29 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="58">
         <v>43489</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="62">
         <v>9125</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="42"/>
+      <c r="F15" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="41">
+        <v>43494</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="18"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3711,119 +4421,173 @@
         <f>ROW()-4</f>
         <v>12</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="58">
         <v>43489</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="62">
         <v>9125</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="42"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="18"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="53">
+      <c r="A17" s="52">
         <f>ROW()-4</f>
         <v>13</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="42"/>
+      <c r="B17" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="41">
+        <v>43494</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="42"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="52">
         <f>ROW()-4</f>
         <v>14</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="42"/>
+      <c r="B18" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="42"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="52">
         <f t="shared" ref="A19" si="1">ROW()-4</f>
         <v>15</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="42"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="42"/>
+      <c r="B20" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="42"/>
+      <c r="B21" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="1"/>
       <c r="J21" s="10"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="42"/>
+      <c r="B22" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="28"/>
+      <c r="J22" s="27"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3831,31 +4595,59 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="42"/>
+      <c r="B23" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="41">
+        <v>43494</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="18"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="42"/>
+      <c r="B24" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="41">
+        <v>43494</v>
+      </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="18"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3863,111 +4655,185 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="41">
+        <v>43494</v>
+      </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="18"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="18"/>
+      <c r="B26" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="41">
+        <v>43494</v>
+      </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="18"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="18"/>
+      <c r="B27" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="18"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="18"/>
+      <c r="B28" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="18"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="18"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="18"/>
+      <c r="B30" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="41">
+        <v>43494</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
+      <c r="B31" s="58">
+        <v>43494</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="62">
+        <v>9320</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="18"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,15 +4841,15 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="18"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="18"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3991,15 +4857,15 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="18"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4007,15 +4873,15 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="18"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4023,15 +4889,15 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="18"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="18"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4039,15 +4905,15 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="18"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="18"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -4055,15 +4921,15 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="18"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4071,15 +4937,15 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="18"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4087,15 +4953,15 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="18"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="18"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4103,15 +4969,15 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="18"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="18"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4119,15 +4985,15 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="18"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="18"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4135,15 +5001,15 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="18"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="18"/>
+      <c r="J42" s="17"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4151,15 +5017,15 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="28"/>
+      <c r="J43" s="27"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4167,15 +5033,15 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="18"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="18"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4183,15 +5049,15 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="18"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="18"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4199,15 +5065,15 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="18"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="18"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4215,15 +5081,15 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="18"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="18"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -4231,15 +5097,15 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="18"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="18"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4247,15 +5113,15 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="26"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="28"/>
+      <c r="J49" s="27"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4263,15 +5129,15 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="26"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="28"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4279,15 +5145,15 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="28"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="28"/>
+      <c r="J51" s="27"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4295,15 +5161,15 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="18"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="18"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4311,15 +5177,15 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="30"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="18"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4327,15 +5193,15 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="30"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4343,15 +5209,15 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="18"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="42"/>
+      <c r="J55" s="41"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4359,15 +5225,15 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="34"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="42"/>
+      <c r="J56" s="41"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4375,15 +5241,15 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="34"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="42"/>
+      <c r="J57" s="41"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4391,15 +5257,15 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="39"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="38"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="18"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4407,15 +5273,15 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="39"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="38"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="39"/>
+      <c r="J59" s="38"/>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4423,15 +5289,15 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="39"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="38"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="39"/>
+      <c r="J60" s="38"/>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4439,15 +5305,15 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="41"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4455,90 +5321,90 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="42"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="41"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="42"/>
+      <c r="J62" s="41"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="45">
+      <c r="A63" s="44">
         <v>58</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="18"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="17"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="42"/>
+      <c r="J63" s="41"/>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="49">
+      <c r="A64" s="48">
         <v>59</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="18"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="17"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="42"/>
+      <c r="J64" s="41"/>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="49">
+      <c r="A65" s="48">
         <v>60</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="42"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="41"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="42"/>
+      <c r="J65" s="41"/>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="49">
+      <c r="A66" s="48">
         <v>61</v>
       </c>
-      <c r="B66" s="52"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="42"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="41"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="42"/>
+      <c r="J66" s="41"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="53">
+      <c r="A67" s="52">
         <v>62</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="18"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="42"/>
+      <c r="J67" s="41"/>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4546,15 +5412,15 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="18"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="17"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="18"/>
+      <c r="J68" s="17"/>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4562,15 +5428,15 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B69" s="59"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="18"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="18"/>
+      <c r="J69" s="17"/>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4578,15 +5444,15 @@
         <f t="shared" ref="A70:A75" si="2">ROW()-4</f>
         <v>66</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="18"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="18"/>
+      <c r="J70" s="17"/>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4594,15 +5460,15 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="18"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="17"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="18"/>
+      <c r="J71" s="17"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4610,15 +5476,15 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="18"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="17"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="18"/>
+      <c r="J72" s="17"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4626,15 +5492,15 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="18"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="17"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="18"/>
+      <c r="J73" s="17"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4642,15 +5508,15 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="18"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="17"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="18"/>
+      <c r="J74" s="17"/>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4658,15 +5524,15 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="18"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="17"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="18"/>
+      <c r="J75" s="17"/>
       <c r="K75" s="1"/>
     </row>
   </sheetData>
@@ -4687,1068 +5553,1052 @@
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I13 E11:F11 E13:E14 I21:K21 E51:F53 H52:K53 E54 I54:K54 F65:I66 E68:K75 E55:K63 E64:I64 E67:I67 K64:K67 A5:E5 I16:I17 B52:D53 B55:D64 B67:D75 E16:F18 I23:K42 I44:K48 H12 F12 I7:K8 I6 A6:A75 E20:F22">
-    <cfRule type="expression" dxfId="313" priority="521">
+  <conditionalFormatting sqref="I13 E11:F11 E13:E14 I21:K21 E51:F53 H52:K53 E54 I54:K54 F65:I66 E68:K75 E55:K63 E64:I64 E67:I67 K64:K67 A5:E5 I16:I17 B52:D53 B55:D64 B67:D75 E16:F18 I23:K42 I44:K48 H12 F12 I7:K8 I6 A6:A75 E22:F22 F20:F21">
+    <cfRule type="expression" dxfId="357" priority="583">
       <formula>$I5="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="522">
+    <cfRule type="expression" dxfId="356" priority="584">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="311" priority="517">
+    <cfRule type="expression" dxfId="355" priority="579">
       <formula>$I7="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="518">
+    <cfRule type="expression" dxfId="354" priority="580">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="expression" dxfId="309" priority="515">
+    <cfRule type="expression" dxfId="353" priority="577">
       <formula>$I8="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="516">
+    <cfRule type="expression" dxfId="352" priority="578">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="307" priority="513">
+    <cfRule type="expression" dxfId="351" priority="575">
       <formula>$I9="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="514">
+    <cfRule type="expression" dxfId="350" priority="576">
       <formula>$G9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="305" priority="511">
+    <cfRule type="expression" dxfId="349" priority="573">
       <formula>$I10="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="512">
+    <cfRule type="expression" dxfId="348" priority="574">
       <formula>$G10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="303" priority="507">
+    <cfRule type="expression" dxfId="347" priority="569">
       <formula>$I9="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="508">
+    <cfRule type="expression" dxfId="346" priority="570">
       <formula>$G9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="301" priority="487">
+    <cfRule type="expression" dxfId="345" priority="549">
       <formula>$I6="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="488">
+    <cfRule type="expression" dxfId="344" priority="550">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="297" priority="475">
+    <cfRule type="expression" dxfId="343" priority="537">
       <formula>$I8="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="476">
+    <cfRule type="expression" dxfId="342" priority="538">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="295" priority="471">
+    <cfRule type="expression" dxfId="341" priority="533">
       <formula>$I51="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="472">
+    <cfRule type="expression" dxfId="340" priority="534">
       <formula>$G51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="293" priority="417">
+    <cfRule type="expression" dxfId="339" priority="479">
       <formula>$I15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="418">
+    <cfRule type="expression" dxfId="338" priority="480">
       <formula>$G15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="291" priority="415">
+    <cfRule type="expression" dxfId="337" priority="477">
       <formula>$I15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="416">
+    <cfRule type="expression" dxfId="336" priority="478">
       <formula>$G15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F14">
+    <cfRule type="expression" dxfId="335" priority="445">
+      <formula>$I13="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="446">
+      <formula>$G13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="expression" dxfId="333" priority="443">
+      <formula>$I13="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="332" priority="444">
+      <formula>$G13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="331" priority="441">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="442">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="329" priority="439">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="440">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="327" priority="427">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="326" priority="428">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="325" priority="411">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="412">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:K13">
+    <cfRule type="expression" dxfId="323" priority="399">
+      <formula>$I13="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="400">
+      <formula>$G13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="321" priority="393">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="320" priority="394">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="319" priority="391">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="392">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K17">
+    <cfRule type="expression" dxfId="317" priority="389">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="390">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J17">
+    <cfRule type="expression" dxfId="315" priority="387">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="388">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E50">
+    <cfRule type="expression" dxfId="313" priority="359">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="360">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B50">
+    <cfRule type="expression" dxfId="311" priority="357">
+      <formula>$I34="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="358">
+      <formula>$G34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:D50">
+    <cfRule type="expression" dxfId="309" priority="355">
+      <formula>$I34="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="356">
+      <formula>$G34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F50">
+    <cfRule type="expression" dxfId="307" priority="351">
+      <formula>$I25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="352">
+      <formula>$G25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G29 G31:G50">
+    <cfRule type="expression" dxfId="305" priority="349">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="350">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H29 H31:H50">
+    <cfRule type="expression" dxfId="303" priority="347">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="348">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="301" priority="345">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="346">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:D51">
+    <cfRule type="expression" dxfId="299" priority="337">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="338">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" dxfId="297" priority="335">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="336">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="295" priority="333">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="334">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="293" priority="331">
+      <formula>$I43="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="332">
+      <formula>$G43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:K43">
+    <cfRule type="expression" dxfId="291" priority="329">
+      <formula>$I43="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="330">
+      <formula>$G43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="289" priority="327">
+      <formula>$I49="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="328">
+      <formula>$G49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:K49">
+    <cfRule type="expression" dxfId="287" priority="325">
+      <formula>$I49="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="326">
+      <formula>$G49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="285" priority="321">
+      <formula>$I50="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="322">
+      <formula>$G50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:K50">
+    <cfRule type="expression" dxfId="283" priority="319">
+      <formula>$I50="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="320">
+      <formula>$G50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="281" priority="317">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="318">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22">
+    <cfRule type="expression" dxfId="279" priority="315">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="316">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="277" priority="313">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="314">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:K51">
+    <cfRule type="expression" dxfId="275" priority="311">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="312">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="273" priority="305">
+      <formula>$I52="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="306">
+      <formula>$G52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" dxfId="271" priority="303">
+      <formula>$I53="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="304">
+      <formula>$G53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:D54">
+    <cfRule type="expression" dxfId="269" priority="301">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="302">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="267" priority="297">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="298">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="265" priority="295">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="296">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="263" priority="293">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="294">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="261" priority="291">
+      <formula>$I65="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="292">
+      <formula>$G65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:D65">
+    <cfRule type="expression" dxfId="259" priority="289">
+      <formula>$I65="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="290">
+      <formula>$G65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="257" priority="287">
+      <formula>$I66="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="288">
+      <formula>$G66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:D66">
+    <cfRule type="expression" dxfId="255" priority="285">
+      <formula>$I66="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="286">
+      <formula>$G66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:J67">
+    <cfRule type="expression" dxfId="253" priority="283">
+      <formula>$I64="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="284">
+      <formula>$G64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="249" priority="257">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="258">
+      <formula>$G11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="247" priority="255">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="256">
+      <formula>$G11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="245" priority="253">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="254">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="243" priority="251">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="252">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="237" priority="241">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="242">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:K11">
+    <cfRule type="expression" dxfId="235" priority="237">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="238">
+      <formula>$G11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:K10">
+    <cfRule type="expression" dxfId="233" priority="235">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="236">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5">
+    <cfRule type="expression" dxfId="231" priority="233">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="234">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:K9">
+    <cfRule type="expression" dxfId="229" priority="231">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="232">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="227" priority="225">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="226">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:K12">
+    <cfRule type="expression" dxfId="225" priority="223">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="224">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="223" priority="221">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="222">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:K14">
+    <cfRule type="expression" dxfId="221" priority="219">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="220">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I19">
+    <cfRule type="expression" dxfId="219" priority="203">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="204">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K19">
+    <cfRule type="expression" dxfId="217" priority="201">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="202">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J19">
+    <cfRule type="expression" dxfId="215" priority="199">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="200">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="213" priority="197">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="198">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="211" priority="195">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="196">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="209" priority="193">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="194">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="207" priority="189">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="190">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G13">
+    <cfRule type="expression" dxfId="201" priority="177">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="178">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:K6">
+    <cfRule type="expression" dxfId="195" priority="169">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="170">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="193" priority="163">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="164">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="191" priority="161">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="162">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="175" priority="133">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="134">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="173" priority="131">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="132">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="167" priority="111">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="112">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="165" priority="109">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="110">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="163" priority="107">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="108">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="161" priority="105">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="106">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="159" priority="103">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="104">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="157" priority="101">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="102">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="155" priority="99">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="100">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="149" priority="93">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="94">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="143" priority="87">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="88">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C6">
+    <cfRule type="expression" dxfId="141" priority="85">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="86">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="139" priority="83">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="84">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="137" priority="81">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="82">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:C7">
+    <cfRule type="expression" dxfId="135" priority="79">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="80">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="133" priority="77">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="78">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="expression" dxfId="131" priority="75">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="76">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="129" priority="73">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="74">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="127" priority="71">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="72">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="125" priority="69">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="70">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="123" priority="67">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="68">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D17">
+    <cfRule type="expression" dxfId="121" priority="65">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="66">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C17">
+    <cfRule type="expression" dxfId="119" priority="63">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="64">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="289" priority="405">
+    <cfRule type="expression" dxfId="117" priority="61">
       <formula>$I19="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="406">
+    <cfRule type="expression" dxfId="116" priority="62">
       <formula>$G19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="287" priority="383">
-      <formula>$I13="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="384">
-      <formula>$G13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="285" priority="381">
-      <formula>$I13="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="382">
-      <formula>$G13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="283" priority="379">
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="115" priority="59">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="60">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="113" priority="57">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="58">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D33">
+    <cfRule type="expression" dxfId="111" priority="55">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="56">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C33">
+    <cfRule type="expression" dxfId="109" priority="53">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="54">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="107" priority="51">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="52">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="103" priority="49">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="50">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="99" priority="47">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="48">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="95" priority="45">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="46">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="91" priority="43">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="44">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="87" priority="41">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="42">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="83" priority="39">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="40">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="79" priority="37">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="38">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="75" priority="35">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="36">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="71" priority="33">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="34">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="67" priority="31">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="32">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="63" priority="29">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="30">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="59" priority="27">
       <formula>$I15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="380">
+    <cfRule type="expression" dxfId="58" priority="28">
       <formula>$G15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="281" priority="377">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="378">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="279" priority="365">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="366">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="277" priority="349">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="350">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="275" priority="337">
-      <formula>$I13="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="338">
-      <formula>$G13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="273" priority="331">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="55" priority="25">
       <formula>$I15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="332">
+    <cfRule type="expression" dxfId="54" priority="26">
       <formula>$G15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="271" priority="329">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="330">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K17">
-    <cfRule type="expression" dxfId="269" priority="327">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="328">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J17">
-    <cfRule type="expression" dxfId="267" priority="325">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="326">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E50">
-    <cfRule type="expression" dxfId="265" priority="297">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="51" priority="23">
+      <formula>$I17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="24">
+      <formula>$G17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="47" priority="21">
+      <formula>$I17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="22">
+      <formula>$G17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="43" priority="19">
       <formula>$I23="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="298">
+    <cfRule type="expression" dxfId="42" priority="20">
       <formula>$G23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B50">
-    <cfRule type="expression" dxfId="263" priority="295">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="39" priority="17">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="18">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>$I24="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="296">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>$G24&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:D50">
-    <cfRule type="expression" dxfId="261" priority="293">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="expression" dxfId="31" priority="13">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="14">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>$I25="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="294">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>$G25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F50">
-    <cfRule type="expression" dxfId="259" priority="289">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>$I25="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="290">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>$G25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G50">
-    <cfRule type="expression" dxfId="257" priority="287">
-      <formula>$I25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="288">
-      <formula>$G25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H50">
-    <cfRule type="expression" dxfId="255" priority="285">
-      <formula>$I25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="286">
-      <formula>$G25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="253" priority="283">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="284">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:D51">
-    <cfRule type="expression" dxfId="251" priority="275">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="276">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="249" priority="273">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="274">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="247" priority="271">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="272">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="245" priority="269">
-      <formula>$I43="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="270">
-      <formula>$G43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:K43">
-    <cfRule type="expression" dxfId="243" priority="267">
-      <formula>$I43="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="268">
-      <formula>$G43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="241" priority="265">
-      <formula>$I49="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="266">
-      <formula>$G49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:K49">
-    <cfRule type="expression" dxfId="239" priority="263">
-      <formula>$I49="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="264">
-      <formula>$G49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="237" priority="259">
-      <formula>$I50="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="260">
-      <formula>$G50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:K50">
-    <cfRule type="expression" dxfId="235" priority="257">
-      <formula>$I50="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="258">
-      <formula>$G50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="233" priority="255">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="256">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="231" priority="253">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="254">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="229" priority="251">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="252">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:K51">
-    <cfRule type="expression" dxfId="227" priority="249">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="250">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="225" priority="243">
-      <formula>$I52="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="244">
-      <formula>$G52&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="223" priority="241">
-      <formula>$I53="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="242">
-      <formula>$G53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:D54">
-    <cfRule type="expression" dxfId="221" priority="239">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="240">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="219" priority="235">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="236">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="217" priority="233">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="234">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="215" priority="231">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="232">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="213" priority="229">
-      <formula>$I65="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="230">
-      <formula>$G65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:D65">
-    <cfRule type="expression" dxfId="211" priority="227">
-      <formula>$I65="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="228">
-      <formula>$G65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="209" priority="225">
-      <formula>$I66="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="226">
-      <formula>$G66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:D66">
-    <cfRule type="expression" dxfId="207" priority="223">
-      <formula>$I66="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="224">
-      <formula>$G66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J67">
-    <cfRule type="expression" dxfId="205" priority="221">
-      <formula>$I64="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="222">
-      <formula>$G64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="199" priority="199">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="200">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="197" priority="195">
-      <formula>$I11="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="196">
-      <formula>$G11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="195" priority="193">
-      <formula>$I11="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="194">
-      <formula>$G11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="193" priority="191">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="192">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="191" priority="189">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="190">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="189" priority="183">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="184">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="187" priority="181">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="182">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="185" priority="179">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="180">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:K11">
-    <cfRule type="expression" dxfId="183" priority="175">
-      <formula>$I11="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="176">
-      <formula>$G11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:K10">
-    <cfRule type="expression" dxfId="181" priority="173">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="174">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5">
-    <cfRule type="expression" dxfId="179" priority="171">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="172">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="177" priority="169">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="170">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="175" priority="163">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="164">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:K12">
-    <cfRule type="expression" dxfId="173" priority="161">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="162">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="171" priority="159">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="160">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:K14">
-    <cfRule type="expression" dxfId="169" priority="157">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="158">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="167" priority="149">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="150">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I19">
-    <cfRule type="expression" dxfId="165" priority="141">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="142">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K19">
-    <cfRule type="expression" dxfId="163" priority="139">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="140">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J19">
-    <cfRule type="expression" dxfId="161" priority="137">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="138">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="159" priority="135">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="136">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="157" priority="133">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="134">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="155" priority="131">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="132">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="151" priority="127">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="128">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="149" priority="125">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="126">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="147" priority="123">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="124">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G13">
-    <cfRule type="expression" dxfId="141" priority="115">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="116">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="139" priority="113">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="114">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="137" priority="111">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="112">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K6">
-    <cfRule type="expression" dxfId="133" priority="107">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="108">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="127" priority="101">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="102">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="125" priority="99">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="100">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="123" priority="97">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="98">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="121" priority="95">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="96">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="119" priority="93">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="94">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="117" priority="91">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="92">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="115" priority="89">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="90">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="113" priority="87">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="88">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="111" priority="85">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="86">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="109" priority="83">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="84">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D18">
-    <cfRule type="expression" dxfId="107" priority="81">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="82">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="105" priority="79">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="80">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:D19">
-    <cfRule type="expression" dxfId="103" priority="77">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="78">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="97" priority="71">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="72">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="95" priority="69">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="70">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="93" priority="67">
-      <formula>$I17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="68">
-      <formula>$G17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="91" priority="65">
-      <formula>$I17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="66">
-      <formula>$G17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:D20">
-    <cfRule type="expression" dxfId="89" priority="63">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="64">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="87" priority="61">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="62">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D21">
-    <cfRule type="expression" dxfId="85" priority="59">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="60">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="83" priority="57">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="58">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:D22">
-    <cfRule type="expression" dxfId="81" priority="55">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="56">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="79" priority="53">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="54">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:D24">
-    <cfRule type="expression" dxfId="77" priority="51">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="52">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="75" priority="49">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="50">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="73" priority="47">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="48">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="71" priority="45">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="46">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="69" priority="43">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="44">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="67" priority="41">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="42">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="65" priority="39">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="40">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="63" priority="37">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="38">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="61" priority="35">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="36">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="59" priority="33">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="34">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="57" priority="31">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="32">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="55" priority="29">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="30">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="53" priority="27">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="28">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="51" priority="25">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="26">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="47" priority="23">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="24">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="43" priority="21">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="22">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="39" priority="19">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="20">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7">
-    <cfRule type="expression" dxfId="35" priority="17">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="31" priority="15">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="16">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="27" priority="13">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="23" priority="11">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="19" priority="9">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="G26">
     <cfRule type="expression" dxfId="15" priority="7">
-      <formula>$I9="済"</formula>
+      <formula>$I26="済"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="8">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
+      <formula>$G26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$I9="済"</formula>
+      <formula>$I26="済"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="6">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D17">
+      <formula>$G26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$I10="済"</formula>
+      <formula>$I30="済"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C17">
+      <formula>$G30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$I10="済"</formula>
+      <formula>$I30="済"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$G10&lt;&gt;""</formula>
+      <formula>$G30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/doc/HSYS課題管理表.xlsx
+++ b/doc/HSYS課題管理表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spring\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spring\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
   <si>
     <t>管理
 番号</t>
@@ -750,6 +750,111 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>済</t>
+  </si>
+  <si>
+    <t>修正しました。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>邱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>邱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>邱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>邱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>邱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構築しました。理由は判断に用いる。</t>
+    <rPh sb="0" eb="2">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかりません</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -937,7 +1042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,9 +1217,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,6 +1224,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,19 +1286,531 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="358">
+  <dxfs count="432">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4014,8 +4634,8 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4023,7 +4643,7 @@
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="14" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="62" customWidth="1"/>
     <col min="5" max="5" width="68" style="3" customWidth="1"/>
     <col min="6" max="6" width="64.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="4" customWidth="1"/>
@@ -4035,15 +4655,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="5"/>
@@ -4053,56 +4673,56 @@
       <c r="A2" s="6"/>
       <c r="B2" s="12"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="61"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="65" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -4115,7 +4735,7 @@
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <v>9125</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -4124,15 +4744,21 @@
       <c r="F5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="41">
         <v>43494</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -4145,7 +4771,7 @@
       <c r="C6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <v>9125</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -4154,15 +4780,21 @@
       <c r="F6" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="41">
         <v>43494</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -4175,7 +4807,7 @@
       <c r="C7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="61">
         <v>9125</v>
       </c>
       <c r="E7" s="56" t="s">
@@ -4184,15 +4816,21 @@
       <c r="F7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="41">
         <v>43494</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -4205,7 +4843,7 @@
       <c r="C8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="61">
         <v>9125</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -4214,15 +4852,21 @@
       <c r="F8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="41">
         <v>43494</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="114" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -4235,7 +4879,7 @@
       <c r="C9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="61">
         <v>9125</v>
       </c>
       <c r="E9" s="56" t="s">
@@ -4244,15 +4888,21 @@
       <c r="F9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="41">
         <v>43494</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -4265,24 +4915,30 @@
       <c r="C10" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="61">
         <v>9125</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="41">
         <v>43494</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -4295,15 +4951,21 @@
       <c r="C11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="61">
         <v>9125</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="41"/>
+      <c r="F11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="41">
+        <v>43495</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="41"/>
       <c r="K11" s="1"/>
@@ -4319,15 +4981,21 @@
       <c r="C12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="61">
         <v>9125</v>
       </c>
       <c r="E12" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="41">
+        <v>43495</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="41"/>
       <c r="K12" s="1"/>
@@ -4343,15 +5011,21 @@
       <c r="C13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="61">
         <v>9125</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="17"/>
+      <c r="F13" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="41">
+        <v>43495</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="17"/>
       <c r="K13" s="1"/>
@@ -4367,7 +5041,7 @@
       <c r="C14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="61">
         <v>9125</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -4376,15 +5050,21 @@
       <c r="F14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="41">
         <v>43494</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -4397,7 +5077,7 @@
       <c r="C15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="61">
         <v>9125</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -4406,15 +5086,21 @@
       <c r="F15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="41">
         <v>43494</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -4427,15 +5113,21 @@
       <c r="C16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="61">
         <v>9125</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="41">
+        <v>43495</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="17"/>
       <c r="K16" s="1"/>
@@ -4451,24 +5143,30 @@
       <c r="C17" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="61">
         <v>9320</v>
       </c>
       <c r="E17" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="G17" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="41">
         <v>43494</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
@@ -4481,15 +5179,21 @@
       <c r="C18" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="61">
         <v>9320</v>
       </c>
       <c r="E18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="41"/>
+      <c r="F18" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="41">
+        <v>43495</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="41"/>
       <c r="K18" s="1"/>
@@ -4505,15 +5209,21 @@
       <c r="C19" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="61">
         <v>9320</v>
       </c>
       <c r="E19" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
+      <c r="F19" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="41">
+        <v>43495</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="41"/>
       <c r="K19" s="1"/>
@@ -4529,15 +5239,21 @@
       <c r="C20" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="61">
         <v>9320</v>
       </c>
       <c r="E20" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41"/>
+      <c r="F20" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="41">
+        <v>43495</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="41"/>
       <c r="K20" s="1"/>
@@ -4553,15 +5269,21 @@
       <c r="C21" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="61">
         <v>9320</v>
       </c>
       <c r="E21" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="41"/>
+      <c r="F21" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="41">
+        <v>43495</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="10"/>
       <c r="K21" s="1"/>
@@ -4577,15 +5299,21 @@
       <c r="C22" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="61">
         <v>9320</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="41">
+        <v>43495</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="27"/>
       <c r="K22" s="1"/>
@@ -4601,24 +5329,30 @@
       <c r="C23" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="61">
         <v>9320</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="83" t="s">
+      <c r="G23" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="41">
         <v>43494</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
@@ -4631,7 +5365,7 @@
       <c r="C24" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="61">
         <v>9320</v>
       </c>
       <c r="E24" s="20" t="s">
@@ -4640,15 +5374,21 @@
       <c r="F24" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="G24" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H24" s="41">
         <v>43494</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
@@ -4661,24 +5401,30 @@
       <c r="C25" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="61">
         <v>9320</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H25" s="41">
         <v>43494</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
@@ -4691,7 +5437,7 @@
       <c r="C26" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="61">
         <v>9320</v>
       </c>
       <c r="E26" s="20" t="s">
@@ -4700,15 +5446,21 @@
       <c r="F26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="G26" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="41">
         <v>43494</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -4721,15 +5473,21 @@
       <c r="C27" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="61">
         <v>9320</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="17"/>
+      <c r="F27" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="41">
+        <v>43495</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="17"/>
       <c r="K27" s="1"/>
@@ -4745,15 +5503,21 @@
       <c r="C28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="61">
         <v>9320</v>
       </c>
       <c r="E28" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="17"/>
+      <c r="F28" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="41">
+        <v>43495</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="17"/>
       <c r="K28" s="1"/>
@@ -4769,15 +5533,21 @@
       <c r="C29" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="61">
         <v>9320</v>
       </c>
       <c r="E29" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17"/>
+      <c r="F29" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="41">
+        <v>43495</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="17"/>
       <c r="K29" s="1"/>
@@ -4793,7 +5563,7 @@
       <c r="C30" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="61">
         <v>9320</v>
       </c>
       <c r="E30" s="20" t="s">
@@ -4802,15 +5572,21 @@
       <c r="F30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="63" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="41">
         <v>43494</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="41">
+        <v>43495</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
@@ -4823,15 +5599,21 @@
       <c r="C31" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="61">
         <v>9320</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
+      <c r="F31" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="41">
+        <v>43495</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="17"/>
       <c r="K31" s="1"/>
@@ -4843,7 +5625,7 @@
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="57"/>
-      <c r="D32" s="62"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="20"/>
       <c r="F32" s="19"/>
       <c r="G32" s="18"/>
@@ -4859,7 +5641,7 @@
       </c>
       <c r="B33" s="58"/>
       <c r="C33" s="57"/>
-      <c r="D33" s="62"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="20"/>
       <c r="F33" s="19"/>
       <c r="G33" s="18"/>
@@ -4875,7 +5657,7 @@
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="62"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="20"/>
       <c r="F34" s="19"/>
       <c r="G34" s="18"/>
@@ -4891,7 +5673,7 @@
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="62"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="20"/>
       <c r="F35" s="19"/>
       <c r="G35" s="18"/>
@@ -4907,7 +5689,7 @@
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="62"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="20"/>
       <c r="F36" s="19"/>
       <c r="G36" s="18"/>
@@ -4923,7 +5705,7 @@
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="62"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="20"/>
       <c r="F37" s="19"/>
       <c r="G37" s="18"/>
@@ -4939,7 +5721,7 @@
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="62"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="20"/>
       <c r="F38" s="19"/>
       <c r="G38" s="18"/>
@@ -4955,7 +5737,7 @@
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="62"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="20"/>
       <c r="F39" s="19"/>
       <c r="G39" s="18"/>
@@ -4971,7 +5753,7 @@
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="62"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="20"/>
       <c r="F40" s="19"/>
       <c r="G40" s="18"/>
@@ -4987,7 +5769,7 @@
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="62"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="20"/>
       <c r="F41" s="19"/>
       <c r="G41" s="18"/>
@@ -5003,7 +5785,7 @@
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="62"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="20"/>
       <c r="F42" s="19"/>
       <c r="G42" s="18"/>
@@ -5019,7 +5801,7 @@
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="62"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="20"/>
       <c r="F43" s="23"/>
       <c r="G43" s="28"/>
@@ -5035,7 +5817,7 @@
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="62"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="20"/>
       <c r="F44" s="19"/>
       <c r="G44" s="18"/>
@@ -5051,7 +5833,7 @@
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="62"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="20"/>
       <c r="F45" s="19"/>
       <c r="G45" s="18"/>
@@ -5067,7 +5849,7 @@
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="62"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="20"/>
       <c r="F46" s="19"/>
       <c r="G46" s="18"/>
@@ -5083,7 +5865,7 @@
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="62"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="20"/>
       <c r="F47" s="19"/>
       <c r="G47" s="18"/>
@@ -5099,7 +5881,7 @@
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="62"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="20"/>
       <c r="F48" s="19"/>
       <c r="G48" s="18"/>
@@ -5115,7 +5897,7 @@
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="62"/>
+      <c r="D49" s="61"/>
       <c r="E49" s="20"/>
       <c r="F49" s="24"/>
       <c r="G49" s="26"/>
@@ -5131,7 +5913,7 @@
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="62"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="20"/>
       <c r="F50" s="24"/>
       <c r="G50" s="26"/>
@@ -5147,7 +5929,7 @@
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="62"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="20"/>
       <c r="F51" s="19"/>
       <c r="G51" s="28"/>
@@ -5163,7 +5945,7 @@
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="62"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="20"/>
       <c r="F52" s="32"/>
       <c r="G52" s="30"/>
@@ -5179,7 +5961,7 @@
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="62"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31"/>
       <c r="G53" s="30"/>
@@ -5195,7 +5977,7 @@
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="62"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31"/>
       <c r="G54" s="30"/>
@@ -5211,7 +5993,7 @@
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="35"/>
-      <c r="D55" s="62"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="33"/>
       <c r="F55" s="19"/>
       <c r="G55" s="18"/>
@@ -5227,7 +6009,7 @@
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="35"/>
-      <c r="D56" s="62"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="33"/>
       <c r="F56" s="19"/>
       <c r="G56" s="37"/>
@@ -5243,7 +6025,7 @@
       </c>
       <c r="B57" s="36"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="62"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32"/>
       <c r="G57" s="37"/>
@@ -5259,7 +6041,7 @@
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="62"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="20"/>
       <c r="F58" s="40"/>
       <c r="G58" s="39"/>
@@ -5275,7 +6057,7 @@
       </c>
       <c r="B59" s="36"/>
       <c r="C59" s="35"/>
-      <c r="D59" s="62"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="20"/>
       <c r="F59" s="40"/>
       <c r="G59" s="39"/>
@@ -5291,7 +6073,7 @@
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="35"/>
-      <c r="D60" s="62"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="20"/>
       <c r="F60" s="40"/>
       <c r="G60" s="39"/>
@@ -5307,7 +6089,7 @@
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="62"/>
+      <c r="D61" s="61"/>
       <c r="E61" s="20"/>
       <c r="F61" s="43"/>
       <c r="G61" s="42"/>
@@ -5323,7 +6105,7 @@
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="62"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="20"/>
       <c r="F62" s="43"/>
       <c r="G62" s="42"/>
@@ -5338,7 +6120,7 @@
       </c>
       <c r="B63" s="47"/>
       <c r="C63" s="46"/>
-      <c r="D63" s="62"/>
+      <c r="D63" s="61"/>
       <c r="E63" s="45"/>
       <c r="F63" s="43"/>
       <c r="G63" s="18"/>
@@ -5353,7 +6135,7 @@
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="50"/>
-      <c r="D64" s="62"/>
+      <c r="D64" s="61"/>
       <c r="E64" s="49"/>
       <c r="F64" s="19"/>
       <c r="G64" s="18"/>
@@ -5368,7 +6150,7 @@
       </c>
       <c r="B65" s="51"/>
       <c r="C65" s="50"/>
-      <c r="D65" s="62"/>
+      <c r="D65" s="61"/>
       <c r="E65" s="49"/>
       <c r="F65" s="19"/>
       <c r="G65" s="42"/>
@@ -5383,7 +6165,7 @@
       </c>
       <c r="B66" s="51"/>
       <c r="C66" s="50"/>
-      <c r="D66" s="62"/>
+      <c r="D66" s="61"/>
       <c r="E66" s="49"/>
       <c r="F66" s="19"/>
       <c r="G66" s="42"/>
@@ -5398,7 +6180,7 @@
       </c>
       <c r="B67" s="54"/>
       <c r="C67" s="53"/>
-      <c r="D67" s="62"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="55"/>
       <c r="F67" s="19"/>
       <c r="G67" s="18"/>
@@ -5414,7 +6196,7 @@
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="62"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="20"/>
       <c r="F68" s="19"/>
       <c r="G68" s="18"/>
@@ -5430,7 +6212,7 @@
       </c>
       <c r="B69" s="58"/>
       <c r="C69" s="57"/>
-      <c r="D69" s="62"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="56"/>
       <c r="F69" s="19"/>
       <c r="G69" s="18"/>
@@ -5446,7 +6228,7 @@
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="57"/>
-      <c r="D70" s="62"/>
+      <c r="D70" s="61"/>
       <c r="E70" s="20"/>
       <c r="F70" s="19"/>
       <c r="G70" s="18"/>
@@ -5462,7 +6244,7 @@
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="62"/>
+      <c r="D71" s="61"/>
       <c r="E71" s="20"/>
       <c r="F71" s="19"/>
       <c r="G71" s="18"/>
@@ -5478,7 +6260,7 @@
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="62"/>
+      <c r="D72" s="61"/>
       <c r="E72" s="20"/>
       <c r="F72" s="19"/>
       <c r="G72" s="18"/>
@@ -5494,7 +6276,7 @@
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="62"/>
+      <c r="D73" s="61"/>
       <c r="E73" s="20"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18"/>
@@ -5510,7 +6292,7 @@
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="62"/>
+      <c r="D74" s="61"/>
       <c r="E74" s="20"/>
       <c r="F74" s="19"/>
       <c r="G74" s="18"/>
@@ -5526,7 +6308,7 @@
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="62"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="20"/>
       <c r="F75" s="19"/>
       <c r="G75" s="18"/>
@@ -5553,1052 +6335,1260 @@
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I13 E11:F11 E13:E14 I21:K21 E51:F53 H52:K53 E54 I54:K54 F65:I66 E68:K75 E55:K63 E64:I64 E67:I67 K64:K67 A5:E5 I16:I17 B52:D53 B55:D64 B67:D75 E16:F18 I23:K42 I44:K48 H12 F12 I7:K8 I6 A6:A75 E22:F22 F20:F21">
-    <cfRule type="expression" dxfId="357" priority="583">
+  <conditionalFormatting sqref="I13 E11 E13:E14 I21:K21 E51:F53 H52:K53 E54 I54:K54 F65:I66 E68:K75 E55:K63 E64:I64 E67:I67 K64:K67 A5:E5 I16 B52:D53 B55:D64 B67:D75 E17:F17 I27:K29 I44:K48 A6:A75 E22 I31:K42 E18 E16">
+    <cfRule type="expression" dxfId="431" priority="689">
       <formula>$I5="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="584">
+    <cfRule type="expression" dxfId="430" priority="690">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="355" priority="579">
+    <cfRule type="expression" dxfId="429" priority="685">
       <formula>$I7="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="580">
+    <cfRule type="expression" dxfId="428" priority="686">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="expression" dxfId="353" priority="577">
+    <cfRule type="expression" dxfId="427" priority="683">
       <formula>$I8="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="578">
+    <cfRule type="expression" dxfId="426" priority="684">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="351" priority="575">
+    <cfRule type="expression" dxfId="425" priority="681">
       <formula>$I9="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="576">
+    <cfRule type="expression" dxfId="424" priority="682">
       <formula>$G9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="349" priority="573">
+    <cfRule type="expression" dxfId="423" priority="679">
       <formula>$I10="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="574">
+    <cfRule type="expression" dxfId="422" priority="680">
       <formula>$G10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="347" priority="569">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="421" priority="655">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="420" priority="656">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="419" priority="643">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="418" priority="644">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="417" priority="639">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="416" priority="640">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="415" priority="585">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="414" priority="586">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="413" priority="551">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="412" priority="552">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="409" priority="547">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="408" priority="548">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:K13">
+    <cfRule type="expression" dxfId="401" priority="505">
+      <formula>$I13="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="400" priority="506">
+      <formula>$G13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="expression" dxfId="399" priority="495">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="398" priority="496">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="397" priority="493">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="396" priority="494">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E50">
+    <cfRule type="expression" dxfId="395" priority="465">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="466">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B50">
+    <cfRule type="expression" dxfId="393" priority="463">
+      <formula>$I34="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="392" priority="464">
+      <formula>$G34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:D50">
+    <cfRule type="expression" dxfId="391" priority="461">
+      <formula>$I34="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="462">
+      <formula>$G34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F26 F32:F50 F30">
+    <cfRule type="expression" dxfId="389" priority="457">
+      <formula>$I25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="458">
+      <formula>$G25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G50">
+    <cfRule type="expression" dxfId="387" priority="455">
+      <formula>$I32="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="386" priority="456">
+      <formula>$G32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H50">
+    <cfRule type="expression" dxfId="385" priority="453">
+      <formula>$I32="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="384" priority="454">
+      <formula>$G32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="383" priority="451">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="452">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:D51">
+    <cfRule type="expression" dxfId="381" priority="443">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="380" priority="444">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" dxfId="379" priority="441">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="442">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="377" priority="439">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="376" priority="440">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="expression" dxfId="375" priority="437">
+      <formula>$I43="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="438">
+      <formula>$G43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:K43">
+    <cfRule type="expression" dxfId="373" priority="435">
+      <formula>$I43="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="436">
+      <formula>$G43&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="371" priority="433">
+      <formula>$I49="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="434">
+      <formula>$G49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:K49">
+    <cfRule type="expression" dxfId="369" priority="431">
+      <formula>$I49="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="432">
+      <formula>$G49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="367" priority="427">
+      <formula>$I50="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="428">
+      <formula>$G50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:K50">
+    <cfRule type="expression" dxfId="365" priority="425">
+      <formula>$I50="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="426">
+      <formula>$G50&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="363" priority="423">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="424">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22">
+    <cfRule type="expression" dxfId="361" priority="421">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="422">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="359" priority="419">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="420">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:K51">
+    <cfRule type="expression" dxfId="357" priority="417">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="418">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="355" priority="411">
+      <formula>$I52="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="412">
+      <formula>$G52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" dxfId="353" priority="409">
+      <formula>$I53="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="410">
+      <formula>$G53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:D54">
+    <cfRule type="expression" dxfId="351" priority="407">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="408">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="349" priority="403">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="404">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="347" priority="401">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="402">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="345" priority="399">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="400">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="343" priority="397">
+      <formula>$I65="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="398">
+      <formula>$G65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:D65">
+    <cfRule type="expression" dxfId="341" priority="395">
+      <formula>$I65="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="396">
+      <formula>$G65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="339" priority="393">
+      <formula>$I66="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="394">
+      <formula>$G66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:D66">
+    <cfRule type="expression" dxfId="337" priority="391">
+      <formula>$I66="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="392">
+      <formula>$G66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:J67">
+    <cfRule type="expression" dxfId="335" priority="389">
+      <formula>$I64="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="390">
+      <formula>$G64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="329" priority="359">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="360">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="327" priority="357">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="326" priority="358">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="325" priority="347">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="348">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:K11">
+    <cfRule type="expression" dxfId="323" priority="343">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="344">
+      <formula>$G11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5">
+    <cfRule type="expression" dxfId="321" priority="339">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="320" priority="340">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="319" priority="331">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="332">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:K12">
+    <cfRule type="expression" dxfId="317" priority="329">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="330">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I19">
+    <cfRule type="expression" dxfId="315" priority="309">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="310">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K19">
+    <cfRule type="expression" dxfId="313" priority="307">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="308">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J19">
+    <cfRule type="expression" dxfId="311" priority="305">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="306">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="309" priority="303">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="304">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="307" priority="301">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="302">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="305" priority="299">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="300">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="303" priority="295">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="296">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="279" priority="205">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="206">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="277" priority="199">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="200">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="275" priority="193">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="194">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C6">
+    <cfRule type="expression" dxfId="273" priority="191">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="192">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="271" priority="189">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="190">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="269" priority="187">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="188">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:C7">
+    <cfRule type="expression" dxfId="267" priority="185">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="186">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="265" priority="183">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="184">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="expression" dxfId="263" priority="181">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="182">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="261" priority="179">
       <formula>$I9="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="570">
+    <cfRule type="expression" dxfId="260" priority="180">
       <formula>$G9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="345" priority="549">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="259" priority="177">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="178">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="257" priority="175">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="176">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="255" priority="173">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="174">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D17">
+    <cfRule type="expression" dxfId="253" priority="171">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="172">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C17">
+    <cfRule type="expression" dxfId="251" priority="169">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="170">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="249" priority="167">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="168">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="247" priority="165">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="166">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="245" priority="163">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="164">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D33">
+    <cfRule type="expression" dxfId="243" priority="161">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="162">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C33">
+    <cfRule type="expression" dxfId="241" priority="159">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="160">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="239" priority="157">
       <formula>$I6="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="550">
+    <cfRule type="expression" dxfId="238" priority="158">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="343" priority="537">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="237" priority="155">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="156">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="235" priority="153">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="154">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="233" priority="151">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="152">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="231" priority="149">
       <formula>$I8="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="538">
+    <cfRule type="expression" dxfId="230" priority="150">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="341" priority="533">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="534">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="339" priority="479">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="229" priority="147">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="148">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="227" priority="145">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="146">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="225" priority="143">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="144">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="223" priority="141">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="142">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="221" priority="139">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="140">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="219" priority="137">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="138">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="217" priority="135">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="136">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="215" priority="133">
       <formula>$I15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="480">
+    <cfRule type="expression" dxfId="214" priority="134">
       <formula>$G15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="337" priority="477">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="213" priority="131">
       <formula>$I15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="478">
+    <cfRule type="expression" dxfId="212" priority="132">
       <formula>$G15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="335" priority="445">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="211" priority="129">
+      <formula>$I17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="130">
+      <formula>$G17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="209" priority="127">
+      <formula>$I17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="128">
+      <formula>$G17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="207" priority="125">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="126">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="205" priority="123">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="124">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="203" priority="121">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="122">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="expression" dxfId="201" priority="119">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="120">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="expression" dxfId="199" priority="117">
+      <formula>$I25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="118">
+      <formula>$G25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="197" priority="115">
+      <formula>$I25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="116">
+      <formula>$G25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="expression" dxfId="195" priority="113">
+      <formula>$I26="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="114">
+      <formula>$G26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="193" priority="111">
+      <formula>$I26="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="112">
+      <formula>$G26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="expression" dxfId="191" priority="109">
+      <formula>$I30="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="110">
+      <formula>$G30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="expression" dxfId="189" priority="107">
+      <formula>$I30="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="108">
+      <formula>$G30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:K6">
+    <cfRule type="expression" dxfId="187" priority="105">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="106">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:K7">
+    <cfRule type="expression" dxfId="185" priority="103">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="104">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:K8">
+    <cfRule type="expression" dxfId="183" priority="101">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="102">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:K9">
+    <cfRule type="expression" dxfId="181" priority="99">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="100">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:K10">
+    <cfRule type="expression" dxfId="179" priority="97">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="98">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:K14">
+    <cfRule type="expression" dxfId="177" priority="95">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="96">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:K15">
+    <cfRule type="expression" dxfId="175" priority="93">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="94">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:K17">
+    <cfRule type="expression" dxfId="173" priority="91">
+      <formula>$I17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="92">
+      <formula>$G17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:K23">
+    <cfRule type="expression" dxfId="171" priority="89">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="90">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:K24">
+    <cfRule type="expression" dxfId="169" priority="87">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="88">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:K25">
+    <cfRule type="expression" dxfId="167" priority="85">
+      <formula>$I25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="86">
+      <formula>$G25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:K26">
+    <cfRule type="expression" dxfId="165" priority="83">
+      <formula>$I26="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="84">
+      <formula>$G26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:K30">
+    <cfRule type="expression" dxfId="163" priority="81">
+      <formula>$I30="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="82">
+      <formula>$G30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="159" priority="79">
+      <formula>$I31="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="80">
+      <formula>$G31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="155" priority="77">
+      <formula>$I31="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="78">
+      <formula>$G31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="151" priority="75">
+      <formula>$I31="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="76">
+      <formula>$G31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="147" priority="73">
+      <formula>$I29="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="74">
+      <formula>$G29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="expression" dxfId="143" priority="71">
+      <formula>$I29="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="72">
+      <formula>$G29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="expression" dxfId="139" priority="69">
+      <formula>$I29="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="70">
+      <formula>$G29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="135" priority="67">
+      <formula>$I28="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="68">
+      <formula>$G28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="131" priority="65">
+      <formula>$I28="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="66">
+      <formula>$G28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="expression" dxfId="127" priority="63">
+      <formula>$I28="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="64">
+      <formula>$G28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="123" priority="61">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="62">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="expression" dxfId="119" priority="59">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="60">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="expression" dxfId="115" priority="57">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="58">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="111" priority="55">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="56">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="107" priority="53">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="54">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="103" priority="51">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="52">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="99" priority="49">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="50">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="95" priority="47">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="48">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="91" priority="45">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="46">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="87" priority="43">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="44">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="83" priority="41">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="42">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="79" priority="39">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="40">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="75" priority="37">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="38">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="71" priority="35">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="36">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="67" priority="33">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="34">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="63" priority="31">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="32">
+      <formula>$G11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="59" priority="29">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="30">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="55" priority="27">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="28">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="51" priority="25">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="26">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="47" priority="23">
       <formula>$I13="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="446">
+    <cfRule type="expression" dxfId="46" priority="24">
       <formula>$G13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="43" priority="21">
+      <formula>$I13="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="22">
+      <formula>$G13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="333" priority="443">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>$I13="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="444">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>$G13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="331" priority="441">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="330" priority="442">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="329" priority="439">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="440">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="327" priority="427">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="326" priority="428">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="325" priority="411">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="324" priority="412">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="323" priority="399">
-      <formula>$I13="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="322" priority="400">
-      <formula>$G13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="321" priority="393">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="320" priority="394">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="319" priority="391">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="318" priority="392">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K17">
-    <cfRule type="expression" dxfId="317" priority="389">
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="31" priority="15">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="16">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>$I16="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="390">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>$G16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J17">
-    <cfRule type="expression" dxfId="315" priority="387">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>$I16="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="388">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>$G16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E50">
-    <cfRule type="expression" dxfId="313" priority="359">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="360">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B50">
-    <cfRule type="expression" dxfId="311" priority="357">
-      <formula>$I34="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="358">
-      <formula>$G34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:D50">
-    <cfRule type="expression" dxfId="309" priority="355">
-      <formula>$I34="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="356">
-      <formula>$G34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F50">
-    <cfRule type="expression" dxfId="307" priority="351">
-      <formula>$I25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="352">
-      <formula>$G25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29 G31:G50">
-    <cfRule type="expression" dxfId="305" priority="349">
-      <formula>$I27="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="350">
-      <formula>$G27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29 H31:H50">
-    <cfRule type="expression" dxfId="303" priority="347">
-      <formula>$I27="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="348">
-      <formula>$G27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="301" priority="345">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="346">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:D51">
-    <cfRule type="expression" dxfId="299" priority="337">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="338">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="297" priority="335">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="336">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="295" priority="333">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="334">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="293" priority="331">
-      <formula>$I43="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="332">
-      <formula>$G43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:K43">
-    <cfRule type="expression" dxfId="291" priority="329">
-      <formula>$I43="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="330">
-      <formula>$G43&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="289" priority="327">
-      <formula>$I49="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="328">
-      <formula>$G49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:K49">
-    <cfRule type="expression" dxfId="287" priority="325">
-      <formula>$I49="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="326">
-      <formula>$G49&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="285" priority="321">
-      <formula>$I50="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="322">
-      <formula>$G50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:K50">
-    <cfRule type="expression" dxfId="283" priority="319">
-      <formula>$I50="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="320">
-      <formula>$G50&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="281" priority="317">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="318">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="279" priority="315">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="316">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="277" priority="313">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="314">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:K51">
-    <cfRule type="expression" dxfId="275" priority="311">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="312">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="273" priority="305">
-      <formula>$I52="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="306">
-      <formula>$G52&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="271" priority="303">
-      <formula>$I53="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="304">
-      <formula>$G53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:D54">
-    <cfRule type="expression" dxfId="269" priority="301">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="302">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="267" priority="297">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="298">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="265" priority="295">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="296">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="263" priority="293">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="294">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="261" priority="291">
-      <formula>$I65="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="292">
-      <formula>$G65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:D65">
-    <cfRule type="expression" dxfId="259" priority="289">
-      <formula>$I65="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="290">
-      <formula>$G65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="257" priority="287">
-      <formula>$I66="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="288">
-      <formula>$G66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:D66">
-    <cfRule type="expression" dxfId="255" priority="285">
-      <formula>$I66="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="286">
-      <formula>$G66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J67">
-    <cfRule type="expression" dxfId="253" priority="283">
-      <formula>$I64="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="284">
-      <formula>$G64&lt;&gt;""</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$G21&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="249" priority="257">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$I11="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="258">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$G11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="247" priority="255">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I11="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="256">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$G11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="245" priority="253">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="254">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="243" priority="251">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="252">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="237" priority="241">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="242">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:K11">
-    <cfRule type="expression" dxfId="235" priority="237">
-      <formula>$I11="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="238">
-      <formula>$G11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:K10">
-    <cfRule type="expression" dxfId="233" priority="235">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="236">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5">
-    <cfRule type="expression" dxfId="231" priority="233">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="234">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="229" priority="231">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="232">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="227" priority="225">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="226">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:K12">
-    <cfRule type="expression" dxfId="225" priority="223">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="224">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="223" priority="221">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="222">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:K14">
-    <cfRule type="expression" dxfId="221" priority="219">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="220">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I19">
-    <cfRule type="expression" dxfId="219" priority="203">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="204">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K19">
-    <cfRule type="expression" dxfId="217" priority="201">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="202">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J19">
-    <cfRule type="expression" dxfId="215" priority="199">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="200">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="213" priority="197">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="198">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="211" priority="195">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="196">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="209" priority="193">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="194">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="207" priority="189">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="190">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G13">
-    <cfRule type="expression" dxfId="201" priority="177">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="178">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K6">
-    <cfRule type="expression" dxfId="195" priority="169">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="170">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="193" priority="163">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="164">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="191" priority="161">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="162">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="175" priority="133">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="134">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="173" priority="131">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="132">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="167" priority="111">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="112">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="165" priority="109">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="110">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="163" priority="107">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="108">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="161" priority="105">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="106">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="159" priority="103">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="104">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="157" priority="101">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="102">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="155" priority="99">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="100">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="149" priority="93">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="94">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="143" priority="87">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="88">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="141" priority="85">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="86">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="139" priority="83">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="84">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="137" priority="81">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="82">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7">
-    <cfRule type="expression" dxfId="135" priority="79">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="80">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="133" priority="77">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="78">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="131" priority="75">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="76">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="129" priority="73">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="74">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="127" priority="71">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="72">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="125" priority="69">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="70">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="123" priority="67">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="68">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D17">
-    <cfRule type="expression" dxfId="121" priority="65">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="66">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C17">
-    <cfRule type="expression" dxfId="119" priority="63">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="64">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="117" priority="61">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="62">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="115" priority="59">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="60">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="113" priority="57">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="58">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D33">
-    <cfRule type="expression" dxfId="111" priority="55">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="56">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C33">
-    <cfRule type="expression" dxfId="109" priority="53">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="54">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="107" priority="51">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="52">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="103" priority="49">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="50">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="99" priority="47">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="48">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="95" priority="45">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="46">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="91" priority="43">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="44">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="87" priority="41">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="42">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="83" priority="39">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="40">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="79" priority="37">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="38">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="75" priority="35">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="36">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="71" priority="33">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="34">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="67" priority="31">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="32">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="63" priority="29">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="30">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="59" priority="27">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="28">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="55" priority="25">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="26">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="51" priority="23">
-      <formula>$I17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="24">
-      <formula>$G17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="47" priority="21">
-      <formula>$I17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="22">
-      <formula>$G17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="43" priority="19">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="20">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="39" priority="17">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="35" priority="15">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="16">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="31" priority="13">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="23" priority="11">
-      <formula>$I25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12">
-      <formula>$G25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="19" priority="9">
-      <formula>$I25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
-      <formula>$G25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>$I26="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>$G26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$I26="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>$G26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$I30="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$G30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$I30="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$G30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/doc/HSYS課題管理表.xlsx
+++ b/doc/HSYS課題管理表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spring\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\hsys\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
   <si>
     <t>管理
 番号</t>
@@ -1292,693 +1292,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="432">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="334">
     <dxf>
       <fill>
         <patternFill>
@@ -4634,8 +3948,8 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4966,7 +4280,9 @@
       <c r="H11" s="41">
         <v>43495</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J11" s="41"/>
       <c r="K11" s="1"/>
     </row>
@@ -4996,7 +4312,9 @@
       <c r="H12" s="41">
         <v>43495</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J12" s="41"/>
       <c r="K12" s="1"/>
     </row>
@@ -5026,7 +4344,9 @@
       <c r="H13" s="41">
         <v>43495</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J13" s="17"/>
       <c r="K13" s="1"/>
     </row>
@@ -5128,7 +4448,9 @@
       <c r="H16" s="41">
         <v>43495</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J16" s="17"/>
       <c r="K16" s="1"/>
     </row>
@@ -5194,7 +4516,9 @@
       <c r="H18" s="41">
         <v>43495</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J18" s="41"/>
       <c r="K18" s="1"/>
     </row>
@@ -5224,7 +4548,9 @@
       <c r="H19" s="41">
         <v>43495</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J19" s="41"/>
       <c r="K19" s="1"/>
     </row>
@@ -5254,7 +4580,9 @@
       <c r="H20" s="41">
         <v>43495</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J20" s="41"/>
       <c r="K20" s="1"/>
     </row>
@@ -5284,7 +4612,9 @@
       <c r="H21" s="41">
         <v>43495</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="1"/>
     </row>
@@ -5314,7 +4644,9 @@
       <c r="H22" s="41">
         <v>43495</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J22" s="27"/>
       <c r="K22" s="1"/>
     </row>
@@ -5488,7 +4820,9 @@
       <c r="H27" s="41">
         <v>43495</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J27" s="17"/>
       <c r="K27" s="1"/>
     </row>
@@ -5518,7 +4852,9 @@
       <c r="H28" s="41">
         <v>43495</v>
       </c>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J28" s="17"/>
       <c r="K28" s="1"/>
     </row>
@@ -5548,7 +4884,9 @@
       <c r="H29" s="41">
         <v>43495</v>
       </c>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J29" s="17"/>
       <c r="K29" s="1"/>
     </row>
@@ -5614,7 +4952,9 @@
       <c r="H31" s="41">
         <v>43495</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J31" s="17"/>
       <c r="K31" s="1"/>
     </row>
@@ -6335,1260 +5675,1268 @@
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I13 E11 E13:E14 I21:K21 E51:F53 H52:K53 E54 I54:K54 F65:I66 E68:K75 E55:K63 E64:I64 E67:I67 K64:K67 A5:E5 I16 B52:D53 B55:D64 B67:D75 E17:F17 I27:K29 I44:K48 A6:A75 E22 I31:K42 E18 E16">
-    <cfRule type="expression" dxfId="431" priority="689">
+  <conditionalFormatting sqref="I13 E11 E13:E14 J21:K21 E51:F53 H52:K53 E54 I54:K54 F65:I66 E68:K75 E55:K63 E64:I64 E67:I67 K64:K67 A5:E5 I16 B52:D53 B55:D64 B67:D75 E17:F17 J27:K29 I44:K48 A6:A75 E22 I32:K42 E18 E16 J31:K31">
+    <cfRule type="expression" dxfId="333" priority="699">
       <formula>$I5="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="690">
+    <cfRule type="expression" dxfId="332" priority="700">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="429" priority="685">
+    <cfRule type="expression" dxfId="331" priority="695">
       <formula>$I7="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="686">
+    <cfRule type="expression" dxfId="330" priority="696">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="expression" dxfId="427" priority="683">
+    <cfRule type="expression" dxfId="329" priority="693">
       <formula>$I8="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="684">
+    <cfRule type="expression" dxfId="328" priority="694">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="425" priority="681">
+    <cfRule type="expression" dxfId="327" priority="691">
       <formula>$I9="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="682">
+    <cfRule type="expression" dxfId="326" priority="692">
       <formula>$G9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="423" priority="679">
+    <cfRule type="expression" dxfId="325" priority="689">
       <formula>$I10="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="680">
+    <cfRule type="expression" dxfId="324" priority="690">
       <formula>$G10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="421" priority="655">
+    <cfRule type="expression" dxfId="323" priority="665">
       <formula>$I6="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="656">
+    <cfRule type="expression" dxfId="322" priority="666">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="419" priority="643">
+    <cfRule type="expression" dxfId="321" priority="653">
       <formula>$I8="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="644">
+    <cfRule type="expression" dxfId="320" priority="654">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="417" priority="639">
+    <cfRule type="expression" dxfId="319" priority="649">
       <formula>$I51="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="640">
+    <cfRule type="expression" dxfId="318" priority="650">
       <formula>$G51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="415" priority="585">
+    <cfRule type="expression" dxfId="317" priority="595">
       <formula>$I15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="586">
+    <cfRule type="expression" dxfId="316" priority="596">
       <formula>$G15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="413" priority="551">
+    <cfRule type="expression" dxfId="315" priority="561">
       <formula>$I14="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="552">
+    <cfRule type="expression" dxfId="314" priority="562">
       <formula>$G14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="409" priority="547">
+    <cfRule type="expression" dxfId="313" priority="557">
       <formula>$I15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="548">
+    <cfRule type="expression" dxfId="312" priority="558">
       <formula>$G15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="401" priority="505">
+    <cfRule type="expression" dxfId="311" priority="515">
       <formula>$I13="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="506">
+    <cfRule type="expression" dxfId="310" priority="516">
       <formula>$G13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="399" priority="495">
+    <cfRule type="expression" dxfId="309" priority="505">
       <formula>$I16="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="496">
+    <cfRule type="expression" dxfId="308" priority="506">
       <formula>$G16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="397" priority="493">
+    <cfRule type="expression" dxfId="307" priority="503">
       <formula>$I16="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="494">
+    <cfRule type="expression" dxfId="306" priority="504">
       <formula>$G16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E50">
-    <cfRule type="expression" dxfId="395" priority="465">
+    <cfRule type="expression" dxfId="305" priority="475">
       <formula>$I23="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="466">
+    <cfRule type="expression" dxfId="304" priority="476">
       <formula>$G23&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B50">
-    <cfRule type="expression" dxfId="393" priority="463">
+    <cfRule type="expression" dxfId="303" priority="473">
       <formula>$I34="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="464">
+    <cfRule type="expression" dxfId="302" priority="474">
       <formula>$G34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D50">
-    <cfRule type="expression" dxfId="391" priority="461">
+    <cfRule type="expression" dxfId="301" priority="471">
       <formula>$I34="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="462">
+    <cfRule type="expression" dxfId="300" priority="472">
       <formula>$G34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F26 F32:F50 F30">
-    <cfRule type="expression" dxfId="389" priority="457">
+    <cfRule type="expression" dxfId="299" priority="467">
       <formula>$I25="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="458">
+    <cfRule type="expression" dxfId="298" priority="468">
       <formula>$G25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G50">
-    <cfRule type="expression" dxfId="387" priority="455">
+    <cfRule type="expression" dxfId="297" priority="465">
       <formula>$I32="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="456">
+    <cfRule type="expression" dxfId="296" priority="466">
       <formula>$G32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H50">
-    <cfRule type="expression" dxfId="385" priority="453">
+    <cfRule type="expression" dxfId="295" priority="463">
       <formula>$I32="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="454">
+    <cfRule type="expression" dxfId="294" priority="464">
       <formula>$G32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="383" priority="451">
+    <cfRule type="expression" dxfId="293" priority="461">
       <formula>$I5="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="452">
+    <cfRule type="expression" dxfId="292" priority="462">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:D51">
-    <cfRule type="expression" dxfId="381" priority="443">
+    <cfRule type="expression" dxfId="291" priority="453">
       <formula>$I51="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="444">
+    <cfRule type="expression" dxfId="290" priority="454">
       <formula>$G51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="379" priority="441">
+    <cfRule type="expression" dxfId="289" priority="451">
       <formula>$I51="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="442">
+    <cfRule type="expression" dxfId="288" priority="452">
       <formula>$G51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="377" priority="439">
+    <cfRule type="expression" dxfId="287" priority="449">
       <formula>$I51="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="440">
+    <cfRule type="expression" dxfId="286" priority="450">
       <formula>$G51&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="375" priority="437">
+    <cfRule type="expression" dxfId="285" priority="447">
       <formula>$I43="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="438">
+    <cfRule type="expression" dxfId="284" priority="448">
       <formula>$G43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:K43">
-    <cfRule type="expression" dxfId="373" priority="435">
+    <cfRule type="expression" dxfId="283" priority="445">
       <formula>$I43="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="436">
+    <cfRule type="expression" dxfId="282" priority="446">
       <formula>$G43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="371" priority="433">
+    <cfRule type="expression" dxfId="281" priority="443">
       <formula>$I49="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="434">
+    <cfRule type="expression" dxfId="280" priority="444">
       <formula>$G49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:K49">
-    <cfRule type="expression" dxfId="369" priority="431">
+    <cfRule type="expression" dxfId="279" priority="441">
       <formula>$I49="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="432">
+    <cfRule type="expression" dxfId="278" priority="442">
       <formula>$G49&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="367" priority="427">
+    <cfRule type="expression" dxfId="277" priority="437">
       <formula>$I50="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="428">
+    <cfRule type="expression" dxfId="276" priority="438">
       <formula>$G50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:K50">
-    <cfRule type="expression" dxfId="365" priority="425">
+    <cfRule type="expression" dxfId="275" priority="435">
       <formula>$I50="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="426">
+    <cfRule type="expression" dxfId="274" priority="436">
       <formula>$G50&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="363" priority="423">
+  <conditionalFormatting sqref="J22:K22">
+    <cfRule type="expression" dxfId="271" priority="431">
       <formula>$I22="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="424">
+    <cfRule type="expression" dxfId="270" priority="432">
       <formula>$G22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="361" priority="421">
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="269" priority="429">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="430">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:K51">
+    <cfRule type="expression" dxfId="267" priority="427">
+      <formula>$I51="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="428">
+      <formula>$G51&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="265" priority="421">
+      <formula>$I52="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="422">
+      <formula>$G52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="expression" dxfId="263" priority="419">
+      <formula>$I53="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="420">
+      <formula>$G53&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:D54">
+    <cfRule type="expression" dxfId="261" priority="417">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="418">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="259" priority="413">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="414">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="257" priority="411">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="412">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="255" priority="409">
+      <formula>$I54="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="410">
+      <formula>$G54&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="253" priority="407">
+      <formula>$I65="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="408">
+      <formula>$G65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:D65">
+    <cfRule type="expression" dxfId="251" priority="405">
+      <formula>$I65="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="406">
+      <formula>$G65&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="249" priority="403">
+      <formula>$I66="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="404">
+      <formula>$G66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:D66">
+    <cfRule type="expression" dxfId="247" priority="401">
+      <formula>$I66="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="402">
+      <formula>$G66&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:J67">
+    <cfRule type="expression" dxfId="245" priority="399">
+      <formula>$I64="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="400">
+      <formula>$G64&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="243" priority="369">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="370">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="241" priority="367">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="368">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="239" priority="357">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="358">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:K11">
+    <cfRule type="expression" dxfId="237" priority="353">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="354">
+      <formula>$G11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5">
+    <cfRule type="expression" dxfId="235" priority="349">
+      <formula>$I5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="350">
+      <formula>$G5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:K12">
+    <cfRule type="expression" dxfId="231" priority="339">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="340">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K19">
+    <cfRule type="expression" dxfId="227" priority="317">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="318">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J19">
+    <cfRule type="expression" dxfId="225" priority="315">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="316">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="221" priority="311">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="312">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="219" priority="309">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="310">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="217" priority="305">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="306">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="215" priority="215">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="216">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="213" priority="209">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="210">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="211" priority="203">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="204">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C6">
+    <cfRule type="expression" dxfId="209" priority="201">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="202">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="207" priority="199">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="200">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="205" priority="197">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="198">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:C7">
+    <cfRule type="expression" dxfId="203" priority="195">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="196">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="201" priority="193">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="194">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="expression" dxfId="199" priority="191">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="192">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="197" priority="189">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="190">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="195" priority="187">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="188">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="193" priority="185">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="186">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="191" priority="183">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="184">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D17">
+    <cfRule type="expression" dxfId="189" priority="181">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="182">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C17">
+    <cfRule type="expression" dxfId="187" priority="179">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="180">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="185" priority="177">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="178">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="183" priority="175">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="176">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="181" priority="173">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="174">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D33">
+    <cfRule type="expression" dxfId="179" priority="171">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="172">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C33">
+    <cfRule type="expression" dxfId="177" priority="169">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="170">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="175" priority="167">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="168">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="173" priority="165">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="166">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="171" priority="163">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="164">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="169" priority="161">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="162">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="167" priority="159">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="160">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="165" priority="157">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="158">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="163" priority="155">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="156">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="161" priority="153">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="154">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="159" priority="151">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="152">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="157" priority="149">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="150">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="155" priority="147">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="148">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="153" priority="145">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="146">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="151" priority="143">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="144">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="149" priority="141">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="142">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="147" priority="139">
+      <formula>$I17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="140">
+      <formula>$G17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="145" priority="137">
+      <formula>$I17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="138">
+      <formula>$G17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="143" priority="135">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="136">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="141" priority="133">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="134">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="139" priority="131">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="132">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="expression" dxfId="137" priority="129">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="130">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="expression" dxfId="135" priority="127">
+      <formula>$I25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="128">
+      <formula>$G25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="133" priority="125">
+      <formula>$I25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="126">
+      <formula>$G25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="expression" dxfId="131" priority="123">
+      <formula>$I26="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="124">
+      <formula>$G26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="129" priority="121">
+      <formula>$I26="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="122">
+      <formula>$G26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="expression" dxfId="127" priority="119">
+      <formula>$I30="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="120">
+      <formula>$G30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="expression" dxfId="125" priority="117">
+      <formula>$I30="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="118">
+      <formula>$G30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:K6">
+    <cfRule type="expression" dxfId="123" priority="115">
+      <formula>$I6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="116">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:K7">
+    <cfRule type="expression" dxfId="121" priority="113">
+      <formula>$I7="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="114">
+      <formula>$G7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:K8">
+    <cfRule type="expression" dxfId="119" priority="111">
+      <formula>$I8="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="112">
+      <formula>$G8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:K9">
+    <cfRule type="expression" dxfId="117" priority="109">
+      <formula>$I9="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="110">
+      <formula>$G9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:K10">
+    <cfRule type="expression" dxfId="115" priority="107">
+      <formula>$I10="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="108">
+      <formula>$G10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:K14">
+    <cfRule type="expression" dxfId="113" priority="105">
+      <formula>$I14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="106">
+      <formula>$G14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:K15">
+    <cfRule type="expression" dxfId="111" priority="103">
+      <formula>$I15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="104">
+      <formula>$G15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:K17">
+    <cfRule type="expression" dxfId="109" priority="101">
+      <formula>$I17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="102">
+      <formula>$G17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:K23">
+    <cfRule type="expression" dxfId="107" priority="99">
+      <formula>$I23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="100">
+      <formula>$G23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:K24">
+    <cfRule type="expression" dxfId="105" priority="97">
+      <formula>$I24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="98">
+      <formula>$G24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:K25">
+    <cfRule type="expression" dxfId="103" priority="95">
+      <formula>$I25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="96">
+      <formula>$G25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:K26">
+    <cfRule type="expression" dxfId="101" priority="93">
+      <formula>$I26="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="94">
+      <formula>$G26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:K30">
+    <cfRule type="expression" dxfId="99" priority="91">
+      <formula>$I30="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="92">
+      <formula>$G30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="97" priority="89">
+      <formula>$I31="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="90">
+      <formula>$G31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="95" priority="87">
+      <formula>$I31="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="88">
+      <formula>$G31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="93" priority="85">
+      <formula>$I31="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="86">
+      <formula>$G31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="91" priority="83">
+      <formula>$I29="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="84">
+      <formula>$G29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="expression" dxfId="89" priority="81">
+      <formula>$I29="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="82">
+      <formula>$G29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="expression" dxfId="87" priority="79">
+      <formula>$I29="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="80">
+      <formula>$G29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="85" priority="77">
+      <formula>$I28="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="78">
+      <formula>$G28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="83" priority="75">
+      <formula>$I28="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="76">
+      <formula>$G28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="expression" dxfId="81" priority="73">
+      <formula>$I28="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="74">
+      <formula>$G28&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="79" priority="71">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="72">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="expression" dxfId="77" priority="69">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="70">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="expression" dxfId="75" priority="67">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="68">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="73" priority="65">
       <formula>$I22="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="422">
+    <cfRule type="expression" dxfId="72" priority="66">
       <formula>$G22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="359" priority="419">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="358" priority="420">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:K51">
-    <cfRule type="expression" dxfId="357" priority="417">
-      <formula>$I51="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="418">
-      <formula>$G51&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="355" priority="411">
-      <formula>$I52="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="412">
-      <formula>$G52&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="353" priority="409">
-      <formula>$I53="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="410">
-      <formula>$G53&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:D54">
-    <cfRule type="expression" dxfId="351" priority="407">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="350" priority="408">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="349" priority="403">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="404">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="347" priority="401">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="346" priority="402">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="345" priority="399">
-      <formula>$I54="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="400">
-      <formula>$G54&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="343" priority="397">
-      <formula>$I65="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="342" priority="398">
-      <formula>$G65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:D65">
-    <cfRule type="expression" dxfId="341" priority="395">
-      <formula>$I65="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="396">
-      <formula>$G65&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="339" priority="393">
-      <formula>$I66="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="338" priority="394">
-      <formula>$G66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:D66">
-    <cfRule type="expression" dxfId="337" priority="391">
-      <formula>$I66="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="392">
-      <formula>$G66&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J67">
-    <cfRule type="expression" dxfId="335" priority="389">
-      <formula>$I64="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="334" priority="390">
-      <formula>$G64&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="329" priority="359">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="360">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="327" priority="357">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="326" priority="358">
-      <formula>$G5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="325" priority="347">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="71" priority="63">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="64">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="69" priority="61">
+      <formula>$I22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="62">
+      <formula>$G22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="67" priority="59">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="60">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="65" priority="57">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="58">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="63" priority="55">
+      <formula>$I20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="56">
+      <formula>$G20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="61" priority="53">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="54">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="59" priority="51">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="52">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="57" priority="49">
+      <formula>$I19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="50">
+      <formula>$G19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="55" priority="47">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="48">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="53" priority="45">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="46">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="51" priority="43">
+      <formula>$I18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="44">
+      <formula>$G18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="49" priority="41">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="42">
+      <formula>$G11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>$I12="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="348">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>$G12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:K11">
-    <cfRule type="expression" dxfId="323" priority="343">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="45" priority="37">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="38">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="43" priority="35">
+      <formula>$I12="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="36">
+      <formula>$G12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="41" priority="33">
+      <formula>$I13="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="34">
+      <formula>$G13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="39" priority="31">
+      <formula>$I13="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="32">
+      <formula>$G13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="expression" dxfId="37" priority="29">
+      <formula>$I13="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="30">
+      <formula>$G13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="35" priority="25">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="26">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="33" priority="23">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="24">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="31" priority="21">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="22">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="29" priority="19">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="20">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="27" priority="17">
+      <formula>$I16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="18">
+      <formula>$G16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>$I21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="16">
+      <formula>$G21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>$I11="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="344">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>$G11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5">
-    <cfRule type="expression" dxfId="321" priority="339">
-      <formula>$I5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="320" priority="340">
-      <formula>$G5&lt;&gt;""</formula>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>$G11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>$I11="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>$G11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="319" priority="331">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>$I12="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="332">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>$G12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:K12">
-    <cfRule type="expression" dxfId="317" priority="329">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="330">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I19">
-    <cfRule type="expression" dxfId="315" priority="309">
+  <conditionalFormatting sqref="I18:I22">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$I18="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="310">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$G18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K19">
-    <cfRule type="expression" dxfId="313" priority="307">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="308">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J19">
-    <cfRule type="expression" dxfId="311" priority="305">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="306">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="309" priority="303">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="304">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="307" priority="301">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="302">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="305" priority="299">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="300">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="303" priority="295">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="296">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="279" priority="205">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="206">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="277" priority="199">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="200">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="275" priority="193">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="194">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="273" priority="191">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="192">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="271" priority="189">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="190">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="269" priority="187">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="188">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7">
-    <cfRule type="expression" dxfId="267" priority="185">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="186">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="265" priority="183">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="184">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="263" priority="181">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="182">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="261" priority="179">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="180">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="259" priority="177">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="178">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="257" priority="175">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="176">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="255" priority="173">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="174">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D17">
-    <cfRule type="expression" dxfId="253" priority="171">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="172">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C17">
-    <cfRule type="expression" dxfId="251" priority="169">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="170">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="249" priority="167">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="168">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="247" priority="165">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="166">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="245" priority="163">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="164">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D33">
-    <cfRule type="expression" dxfId="243" priority="161">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="162">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C33">
-    <cfRule type="expression" dxfId="241" priority="159">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="160">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="239" priority="157">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="158">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="237" priority="155">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="156">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="235" priority="153">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="154">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="233" priority="151">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="152">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="231" priority="149">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="150">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="229" priority="147">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="148">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="227" priority="145">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="146">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="225" priority="143">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="144">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="223" priority="141">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="142">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="221" priority="139">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="140">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="219" priority="137">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="138">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="217" priority="135">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="136">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="215" priority="133">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="134">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="213" priority="131">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="132">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="211" priority="129">
-      <formula>$I17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="130">
-      <formula>$G17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="209" priority="127">
-      <formula>$I17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="128">
-      <formula>$G17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="207" priority="125">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="126">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="205" priority="123">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="124">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="203" priority="121">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="122">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="201" priority="119">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="120">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="199" priority="117">
-      <formula>$I25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="118">
-      <formula>$G25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="197" priority="115">
-      <formula>$I25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="116">
-      <formula>$G25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="195" priority="113">
-      <formula>$I26="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="114">
-      <formula>$G26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="193" priority="111">
-      <formula>$I26="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="112">
-      <formula>$G26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="191" priority="109">
-      <formula>$I30="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="110">
-      <formula>$G30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="189" priority="107">
-      <formula>$I30="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="108">
-      <formula>$G30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:K6">
-    <cfRule type="expression" dxfId="187" priority="105">
-      <formula>$I6="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="106">
-      <formula>$G6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:K7">
-    <cfRule type="expression" dxfId="185" priority="103">
-      <formula>$I7="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="104">
-      <formula>$G7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K8">
-    <cfRule type="expression" dxfId="183" priority="101">
-      <formula>$I8="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="102">
-      <formula>$G8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:K9">
-    <cfRule type="expression" dxfId="181" priority="99">
-      <formula>$I9="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="100">
-      <formula>$G9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:K10">
-    <cfRule type="expression" dxfId="179" priority="97">
-      <formula>$I10="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="98">
-      <formula>$G10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:K14">
-    <cfRule type="expression" dxfId="177" priority="95">
-      <formula>$I14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="96">
-      <formula>$G14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:K15">
-    <cfRule type="expression" dxfId="175" priority="93">
-      <formula>$I15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="94">
-      <formula>$G15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:K17">
-    <cfRule type="expression" dxfId="173" priority="91">
-      <formula>$I17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="92">
-      <formula>$G17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:K23">
-    <cfRule type="expression" dxfId="171" priority="89">
-      <formula>$I23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="90">
-      <formula>$G23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:K24">
-    <cfRule type="expression" dxfId="169" priority="87">
-      <formula>$I24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="88">
-      <formula>$G24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:K25">
-    <cfRule type="expression" dxfId="167" priority="85">
-      <formula>$I25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="86">
-      <formula>$G25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:K26">
-    <cfRule type="expression" dxfId="165" priority="83">
-      <formula>$I26="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="84">
-      <formula>$G26&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:K30">
-    <cfRule type="expression" dxfId="163" priority="81">
-      <formula>$I30="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="82">
-      <formula>$G30&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="159" priority="79">
+  <conditionalFormatting sqref="I27:I29">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$I27="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$G27&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I31="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="80">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$G31&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="155" priority="77">
-      <formula>$I31="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="78">
-      <formula>$G31&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="151" priority="75">
-      <formula>$I31="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="76">
-      <formula>$G31&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="147" priority="73">
-      <formula>$I29="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="74">
-      <formula>$G29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="143" priority="71">
-      <formula>$I29="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="72">
-      <formula>$G29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="139" priority="69">
-      <formula>$I29="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="70">
-      <formula>$G29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="135" priority="67">
-      <formula>$I28="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="68">
-      <formula>$G28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="131" priority="65">
-      <formula>$I28="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="66">
-      <formula>$G28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="127" priority="63">
-      <formula>$I28="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="64">
-      <formula>$G28&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="123" priority="61">
-      <formula>$I27="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="62">
-      <formula>$G27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="119" priority="59">
-      <formula>$I27="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="60">
-      <formula>$G27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="115" priority="57">
-      <formula>$I27="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="58">
-      <formula>$G27&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="111" priority="55">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="56">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="107" priority="53">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="54">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="103" priority="51">
-      <formula>$I22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="52">
-      <formula>$G22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="99" priority="49">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="50">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="95" priority="47">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="48">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="91" priority="45">
-      <formula>$I20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="46">
-      <formula>$G20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="87" priority="43">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="44">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="83" priority="41">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="42">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="79" priority="39">
-      <formula>$I19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="40">
-      <formula>$G19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="75" priority="37">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="38">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="71" priority="35">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="36">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="67" priority="33">
-      <formula>$I18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="34">
-      <formula>$G18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="63" priority="31">
-      <formula>$I11="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="32">
-      <formula>$G11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="59" priority="29">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="30">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="55" priority="27">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="28">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="51" priority="25">
-      <formula>$I12="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="26">
-      <formula>$G12&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="47" priority="23">
-      <formula>$I13="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="24">
-      <formula>$G13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="43" priority="21">
-      <formula>$I13="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="22">
-      <formula>$G13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="39" priority="19">
-      <formula>$I13="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="20">
-      <formula>$G13&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="31" priority="15">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="16">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="27" priority="13">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="23" priority="11">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="19" priority="9">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>$I16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>$G16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$I21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>$G21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$I11="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$G11&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$I11="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$G11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
